--- a/biology/Zoologie/Adelpha_erotia/Adelpha_erotia.xlsx
+++ b/biology/Zoologie/Adelpha_erotia/Adelpha_erotia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelpha erotia  est une espèce de papillons de la famille des Nymphalidae, sous famille des Limenitidinae et du genre Adelpha.
 </t>
@@ -511,14 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha erotia a été décrit par William Chapman Hewitson en 1867 sous le nom Heterochroa erotia[1].
-Sous-espèces
-Adelpha erotia erotia.
-Adelpha erotia caphira (Hewitson, 1869) présent au Venezuela[1].
-Noms vernaculaires
-Adelpha erotia se nomme en anglais Erotia Sister[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha erotia a été décrit par William Chapman Hewitson en 1867 sous le nom Heterochroa erotia.
 </t>
         </is>
       </c>
@@ -544,14 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adelpha  erotia est un papillon d'une envergure d'environ 53 mm, à bord externe des ailes antérieures concave[3]. Le dessus est marron avec aux ailes antérieures une tache jaune à l'apex et une bande blanche allant de la tache jaune jusqu'au bord interne et se continue aux ailes postérieures allant du milieu du bord costal au bord interne près de l'angle anal.
-Le revers est plus blanc, avec des veines et des bandes rouges à cuivrées, laissant la même large bande blanche que sur le dessus.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Adelpha erotia erotia.
+Adelpha erotia caphira (Hewitson, 1869) présent au Venezuela.</t>
         </is>
       </c>
     </row>
@@ -576,12 +590,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Plantes hôtes</t>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha erotia se nomme en anglais Erotia Sister.
+</t>
         </is>
       </c>
     </row>
@@ -606,15 +627,85 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha  erotia est un papillon d'une envergure d'environ 53 mm, à bord externe des ailes antérieures concave. Le dessus est marron avec aux ailes antérieures une tache jaune à l'apex et une bande blanche allant de la tache jaune jusqu'au bord interne et se continue aux ailes postérieures allant du milieu du bord costal au bord interne près de l'angle anal.
+Le revers est plus blanc, avec des veines et des bandes rouges à cuivrées, laissant la même large bande blanche que sur le dessus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adelpha_erotia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_erotia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha  erotia est présent au dans le sud-est du Mexique, au Costa Rica, au Nicaragua, à Panama, au Venezuela, en Équateur, en Colombie, en Bolivie, au Pérou, au Brésil, en Guyana, au Surinam et en Guyane[1],[2]. 
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha  erotia est présent au dans le sud-est du Mexique, au Costa Rica, au Nicaragua, à Panama, au Venezuela, en Équateur, en Colombie, en Bolivie, au Pérou, au Brésil, en Guyana, au Surinam et en Guyane,. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Adelpha_erotia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_erotia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
